--- a/SetCover/table/set cover.xlsx
+++ b/SetCover/table/set cover.xlsx
@@ -2491,11 +2491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="677936848"/>
-        <c:axId val="677935216"/>
+        <c:axId val="-1975486976"/>
+        <c:axId val="-1975486432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="677936848"/>
+        <c:axId val="-1975486976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2594,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="677935216"/>
+        <c:crossAx val="-1975486432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2602,7 +2602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="677935216"/>
+        <c:axId val="-1975486432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2710,7 +2710,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="677936848"/>
+        <c:crossAx val="-1975486976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3660,8 +3660,8 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/SetCover/table/set cover.xlsx
+++ b/SetCover/table/set cover.xlsx
@@ -4,21 +4,99 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="覆盖率" sheetId="3" r:id="rId2"/>
+    <sheet name="可用性" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
   <si>
     <t xml:space="preserve">
          边缘表维度
 数据维度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用5-marginal table覆盖6维数据集下的（1-5阶）查询范围，实验数据（‘abcdef’）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMC改进的贪婪算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘表数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖组合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用5-marginal table覆盖7维数据集下的（1-5阶）查询范围，实验数据（‘abcdefg’）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abdef,bcdef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcdef,acdef,abcef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用6-marginal table覆盖8维数据集下的（1-6阶）查询范围，实验数据（‘abcdefgh’）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用7-marginal table覆盖9维数据集下的（1-7阶）查询范围，实验数据（‘abcdefghi’）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用7-marginal table覆盖10维数据集下的（1-7阶）查询范围，实验数据（‘abcdefghij’）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用8-marginal table覆盖11维数据集下的（1-8阶）查询范围，实验数据（‘abcdefghijk’）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用9-marginal table覆盖12维数据集下的（1-9阶）查询范围，实验数据（‘abcdefghijkl’）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用9-marginal table覆盖13维数据集下的（1-5阶）查询范围，实验数据（‘abcdefghijkln’）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用9-marginal table覆盖14维数据集下的（1-5阶）查询范围，实验数据（‘abcdefghijklnm’）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用9-marginal table覆盖15维数据集下的（1-5阶）查询范围，实验数据（‘abcdefghijklnmo’）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用10-marginal table覆盖16维数据集下的（1-5阶）查询范围，实验数据（‘abcdefghijklnmop’）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -110,6 +188,86 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -120,7 +278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -132,6 +290,29 @@
     <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2491,11 +2672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1975486976"/>
-        <c:axId val="-1975486432"/>
+        <c:axId val="143981584"/>
+        <c:axId val="143982672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1975486976"/>
+        <c:axId val="143981584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2775,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1975486432"/>
+        <c:crossAx val="143982672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2602,7 +2783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1975486432"/>
+        <c:axId val="143982672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2710,7 +2891,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1975486976"/>
+        <c:crossAx val="143981584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3659,9 +3840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5016,4 +5197,1067 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="16">
+        <v>3</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0.74603174603174605</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0.87301587301587302</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="16">
+        <v>10</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.79527559055118102</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0.85039370078740095</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="16">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="16">
+        <v>8</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.82745098039215603</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.82352941176470495</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="16">
+        <v>10</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="16">
+        <v>6</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="18">
+        <v>0.868884540117416</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0.78864970645792498</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="16">
+        <v>30</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="16">
+        <v>20</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="18">
+        <v>0.81524926686217003</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0.75268817204300997</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="16">
+        <v>40</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="16">
+        <v>25</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="18">
+        <v>0.86663409868099595</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0.77870053737176304</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="16">
+        <v>38</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="16">
+        <v>25</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="18">
+        <v>0.87863247863247795</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="18">
+        <v>0.83199023199023203</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="14"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="16">
+        <v>46</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="16">
+        <v>30</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="14"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="19"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="14"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="16">
+        <v>46</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="14"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="18">
+        <v>0.71480893663777301</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="19"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="14"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="14"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="19"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="14"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="14"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="H52:N52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="H47:N47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A36:N36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="A21:N21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A26:N26"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="K3:N3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SetCover/table/set cover.xlsx
+++ b/SetCover/table/set cover.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
   <si>
     <t xml:space="preserve">
          边缘表维度
@@ -84,19 +84,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>利用9-marginal table覆盖14维数据集下的（1-5阶）查询范围，实验数据（‘abcdefghijklnm’）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>利用9-marginal table覆盖13维数据集下的（1-5阶）查询范围，实验数据（‘abcdefghijkln’）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>利用9-marginal table覆盖14维数据集下的（1-5阶）查询范围，实验数据（‘abcdefghijklnm’）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用9-marginal table覆盖15维数据集下的（1-5阶）查询范围，实验数据（‘abcdefghijklnmo’）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用10-marginal table覆盖16维数据集下的（1-5阶）查询范围，实验数据（‘abcdefghijklnmop’）</t>
+    <t>利用10-marginal table覆盖15维数据集下的（1-5阶）查询范围，实验数据（‘abcdefghijklnmo’）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -290,6 +290,20 @@
     <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,20 +313,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2672,11 +2672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143981584"/>
-        <c:axId val="143982672"/>
+        <c:axId val="-1319597232"/>
+        <c:axId val="-1319596688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143981584"/>
+        <c:axId val="-1319597232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,7 +2775,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143982672"/>
+        <c:crossAx val="-1319596688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2783,7 +2783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143982672"/>
+        <c:axId val="-1319596688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2891,7 +2891,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143981584"/>
+        <c:crossAx val="-1319597232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3841,8 +3841,8 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5201,10 +5201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5216,992 +5216,935 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="16" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="10">
         <v>3</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="12">
         <v>0.74603174603174605</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="12">
         <v>0.87301587301587302</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="10">
         <v>8</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="16" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="10">
         <v>10</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="12">
         <v>0.79527559055118102</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="12">
         <v>0.85039370078740095</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="10">
         <v>9</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="10">
         <v>8</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="12">
         <v>0.82745098039215603</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="12">
         <v>0.82352941176470495</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="10">
         <v>10</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="16" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="10">
         <v>6</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="12">
         <v>0.868884540117416</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="12">
         <v>0.78864970645792498</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="19"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="10">
         <v>30</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="16" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="10">
         <v>20</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="12">
         <v>0.81524926686217003</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="12">
         <v>0.75268817204300997</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="19"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="16"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="10">
         <v>40</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="16" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="10">
         <v>25</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="16"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="12">
         <v>0.86663409868099595</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="12">
         <v>0.77870053737176304</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="13"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="11"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="16"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="10">
         <v>38</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="16" t="s">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="10">
         <v>25</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="14"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="16"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="12">
         <v>0.87863247863247795</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="12">
         <v>0.83199023199023203</v>
       </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="19"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="13"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="19"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="10">
+        <v>109</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="10">
+        <v>58</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="16"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0.79257721889879096</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0.58954950555487695</v>
+      </c>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="13"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="19"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13" t="s">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="14"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="16"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="16">
-        <v>46</v>
-      </c>
-      <c r="C38" s="16" t="s">
+      <c r="B43" s="10">
+        <v>206</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="16" t="s">
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="16">
-        <v>30</v>
-      </c>
-      <c r="J38" s="16" t="s">
+      <c r="I43" s="10">
+        <v>106</v>
+      </c>
+      <c r="J43" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="14"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="16"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18" t="s">
+      <c r="B44">
+        <v>0.67612769334065803</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="19"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="I44" s="12">
+        <v>0.50582921320881402</v>
+      </c>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="13"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="19"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="11"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="14"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="16"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="16">
-        <v>46</v>
-      </c>
-      <c r="C43" s="16" t="s">
+      <c r="B48" s="10">
+        <v>308</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="16" t="s">
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16" t="s">
+      <c r="I48" s="10">
+        <v>200</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="14"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="16"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="18">
-        <v>0.71480893663777301</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18" t="s">
+      <c r="B49" s="12">
+        <v>0.75756096072267798</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="19"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="11"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="14"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="14"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="19"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="11"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="14"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="14"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="19"/>
+      <c r="I49" s="12">
+        <v>0.657765434736167</v>
+      </c>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="H52:N52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="A46:N46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="H47:N47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="A51:N51"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="H42:N42"/>
+  <mergeCells count="50">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A26:N26"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="K43:N43"/>
     <mergeCell ref="D33:G33"/>
@@ -6218,30 +6161,16 @@
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="H32:N32"/>
     <mergeCell ref="A21:N21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A26:N26"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A16:N16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="H47:N47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="K48:N48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
